--- a/BAEKJOON/JAVA.xlsx
+++ b/BAEKJOON/JAVA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\OneDrive\바탕 화면\CCPAPA\BAEKJOON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E35A1B-996A-4AC4-A20B-4592B8CC1B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542FAB15-F254-4084-B064-84864A044284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
   </bookViews>
   <sheets>
     <sheet name="입출력과 사칙연산" sheetId="6" r:id="rId1"/>
+    <sheet name="조건문IF" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>입력한 숫자 B 에서 3번째 자리수를 빼오는 법 (인덱스 0부터시작)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +68,22 @@
   </si>
   <si>
     <t>클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 45분 일찍 맞추기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">결과 값이 달라짐에 주의 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 + 문자열은 출력을 이어붙이는 의미이나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 + 숫자 는 계산을 해서 답을 내기 때문에 주의가 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,6 +662,143 @@
         <a:xfrm>
           <a:off x="295275" y="9258300"/>
           <a:ext cx="9783540" cy="6763694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>534144</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>48392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2DB389-312D-4DCB-9BA3-D8E39CE3FDBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="333375"/>
+          <a:ext cx="5334744" cy="5496692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>591685</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>48100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7A69D5-9030-42F7-86EB-DFF42D5F3015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="7581900"/>
+          <a:ext cx="8135485" cy="3400900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76785</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>58</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F573D2-42E9-464E-9752-47E10155ABEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="5991225"/>
+          <a:ext cx="4191585" cy="419158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -955,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DAC007-D708-4219-8142-FD97B2BB1C03}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1023,4 +1177,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCFB233-7B49-4924-B5CC-A547BCAE486D}">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="3" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="26.25">
+      <c r="A52" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/BAEKJOON/JAVA.xlsx
+++ b/BAEKJOON/JAVA.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\OneDrive\바탕 화면\CCPAPA\BAEKJOON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542FAB15-F254-4084-B064-84864A044284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54733F1-B169-44BF-AC6B-16E6E54C1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
   </bookViews>
   <sheets>
-    <sheet name="입출력과 사칙연산" sheetId="6" r:id="rId1"/>
-    <sheet name="조건문IF" sheetId="8" r:id="rId2"/>
+    <sheet name="효율적출력" sheetId="10" r:id="rId1"/>
+    <sheet name="입출력과 사칙연산" sheetId="6" r:id="rId2"/>
+    <sheet name="조건문IF" sheetId="8" r:id="rId3"/>
+    <sheet name="반복문" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>입력한 숫자 B 에서 3번째 자리수를 빼오는 법 (인덱스 0부터시작)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +86,10 @@
   </si>
   <si>
     <t>숫자 + 숫자 는 계산을 해서 답을 내기 때문에 주의가 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,6 +200,451 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>658370</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFFE04C-C100-4EE8-BA41-9C77B981B794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="333375"/>
+          <a:ext cx="8202170" cy="2934109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571771</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F5FBDD-73E7-4DCF-ADD6-4AB9659C9FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="3686175"/>
+          <a:ext cx="1943371" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315135</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>124252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D50031C-35F0-499E-8FA0-F829AE4B7868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="5362575"/>
+          <a:ext cx="5801535" cy="3057952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>153187</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF88CDC-027F-48D2-B2E4-77DEC67CAFE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="8753475"/>
+          <a:ext cx="5639587" cy="533474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324661</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8587E281-B6A6-4826-8CA1-72254E076929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="9591675"/>
+          <a:ext cx="5811061" cy="1705213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>658004</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ACD273-49FB-4AD1-BD03-CC5D0BA7CC77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343650" y="10906125"/>
+          <a:ext cx="5582429" cy="447737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638CF15A-19CF-45A1-808A-8C8085CBD5D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="11601450"/>
+          <a:ext cx="5553850" cy="1886213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200819</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>133778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B2A180-7A6B-410A-937B-636483CC8183}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="13696950"/>
+          <a:ext cx="5687219" cy="3067478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238924</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>95673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D37B64F-088C-422B-ABDD-C97A153BBE93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="17049750"/>
+          <a:ext cx="5725324" cy="3029373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181766</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>200726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BF1431-700C-4EA5-8ECA-2731DCDD0339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="20402550"/>
+          <a:ext cx="5668166" cy="5020376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>105364</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -673,7 +1124,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1106,11 +1557,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD98462-1E87-4CB9-AD1F-38FD64F98327}">
+  <dimension ref="A1:A95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="26.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="26.25">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="26.25">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="26.25">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="26.25">
+      <c r="A79" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="26.25">
+      <c r="A95" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DAC007-D708-4219-8142-FD97B2BB1C03}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1179,7 +1680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCFB233-7B49-4924-B5CC-A547BCAE486D}">
   <dimension ref="A1:B52"/>
   <sheetViews>
@@ -1233,4 +1734,23 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8168202C-308C-497C-871F-E9AD09620DC5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BAEKJOON/JAVA.xlsx
+++ b/BAEKJOON/JAVA.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\OneDrive\바탕 화면\CCPAPA\BAEKJOON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54733F1-B169-44BF-AC6B-16E6E54C1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B72D4D-75BC-47E5-9C67-F87115F41581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
   </bookViews>
   <sheets>
-    <sheet name="효율적출력" sheetId="10" r:id="rId1"/>
-    <sheet name="입출력과 사칙연산" sheetId="6" r:id="rId2"/>
-    <sheet name="조건문IF" sheetId="8" r:id="rId3"/>
-    <sheet name="반복문" sheetId="9" r:id="rId4"/>
+    <sheet name="입출력과 사칙연산" sheetId="6" r:id="rId1"/>
+    <sheet name="조건문IF" sheetId="8" r:id="rId2"/>
+    <sheet name="반복문" sheetId="9" r:id="rId3"/>
+    <sheet name="효율적출력" sheetId="10" r:id="rId4"/>
+    <sheet name="버퍼리더주의점" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>입력한 숫자 B 에서 3번째 자리수를 빼오는 법 (인덱스 0부터시작)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,7 +90,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>q</t>
+    <t>br.readLint()을 넣어줌으로써 st안에 nextToken함수에도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>br.readLine()이 변수로 들어가 있을거임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 인트 입력시에 st.nextToken()을 넣어주면 공백을 기준으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 값을 인식 할 것임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BufferedReadLine이랑 BufferedWriter이랑 StringTokenizer은 항상 3개 같이 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종적으로는 flush();와 close();처리를 해줘야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 개행 기능이 없으로 \n을 통해 개행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token에 저장했다가 한번에 출력하는 것이다 보니 StringTokenizer은 반복문 안에서 인터페이스화 해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st1로 한 이유는 이후에 수열 A로 여러 개의 숫자값도 공백기준으로 또 나누어서 값을 줘야 되는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st하나로 통일 해선 중복사용이 안되기 때문에 st1과 st로 따로따로 객체화를 해서 사용했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st로 토큰을 하나더 객채화 해서 사용했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 위치가 중요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 와 비교 하면 처리 방식이 완전히 달라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">반복문 안에 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로바로 출력안되고 계속 쌓이고 있다가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 때 값을 한방에 쌓인거 다출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>를 입력하면 StringTokenizer가 바로 10과 2를 분리해서 st.nextToken 2개를 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 nextToken을 꺼내오고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 nextToken을 꺼내오기 때문에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+2=12 값 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다시 돌아가서 st를 객체화(초기화) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값을 다시 입력해달라하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후는 반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for문밖에 StringTokenizer를 둠으로써 처음 한번 입력한 1 10 4 9 2 3 8 5 7 6 이 각각 토큰10개가 생성됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복문을 통해 토큰을 10번 반복해서 꺼내면서 if조건문과 비교해 출력하는것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸 넣어버리면 br.readLine()을 통해 값을 N만큼 반복해서 입력하라고 하게됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 떄,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸 입력시에 토큰이 10개 생성되는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력문이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 한 개이기에 1만 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 입력요구해서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토큰 10개 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에 의해 첫번 째 토큰만 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,17 +345,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>658370</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>409</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105364</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>105433</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFFE04C-C100-4EE8-BA41-9C77B981B794}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB89AC28-04A4-48EF-91AC-BDE44F0F285F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -226,8 +371,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="333375"/>
-          <a:ext cx="8202170" cy="2934109"/>
+          <a:off x="685800" y="209550"/>
+          <a:ext cx="4220164" cy="4715533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -238,23 +383,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571771</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19228</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>401242</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F5FBDD-73E7-4DCF-ADD6-4AB9659C9FFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D237C3-D86E-4CDD-BCFD-1FA5760EF3A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -270,8 +415,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="3686175"/>
-          <a:ext cx="1943371" cy="1276528"/>
+          <a:off x="5486400" y="419100"/>
+          <a:ext cx="1087042" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -282,23 +427,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>315135</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>124252</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95838</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D50031C-35F0-499E-8FA0-F829AE4B7868}"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB61FE29-4F77-4467-B5E7-FFF509E4F2D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -314,8 +459,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="5362575"/>
-          <a:ext cx="5801535" cy="3057952"/>
+          <a:off x="5486400" y="838200"/>
+          <a:ext cx="4210638" cy="2791215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -328,21 +473,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>153187</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114374</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>648269</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>292</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF88CDC-027F-48D2-B2E4-77DEC67CAFE0}"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9B3BFD-B1D7-48B2-B03B-B0362E358936}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -358,8 +503,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="8753475"/>
-          <a:ext cx="5639587" cy="533474"/>
+          <a:off x="685800" y="5448300"/>
+          <a:ext cx="4077269" cy="2095792"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -372,21 +517,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>324661</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>28813</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381149</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8587E281-B6A6-4826-8CA1-72254E076929}"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF3B9F5-A373-4E95-BB13-D96F24DC7BB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -402,8 +547,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="9591675"/>
-          <a:ext cx="5811061" cy="1705213"/>
+          <a:off x="685800" y="7543800"/>
+          <a:ext cx="1066949" cy="1076475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -414,23 +559,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>658004</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>171512</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190527</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ACD273-49FB-4AD1-BD03-CC5D0BA7CC77}"/>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613C61C1-2162-44FB-85C3-2769920B0BDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -446,8 +591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6343650" y="10906125"/>
-          <a:ext cx="5582429" cy="447737"/>
+          <a:off x="5095875" y="5695950"/>
+          <a:ext cx="190527" cy="209579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -458,23 +603,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>67450</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>263</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638CF15A-19CF-45A1-808A-8C8085CBD5D6}"/>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C06338-16CA-4055-A016-F3038268D589}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -490,8 +635,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="11601450"/>
-          <a:ext cx="5553850" cy="1886213"/>
+          <a:off x="6467475" y="5695950"/>
+          <a:ext cx="137160" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -502,23 +647,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200819</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>133778</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571580</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200053</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B2A180-7A6B-410A-937B-636483CC8183}"/>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BEAA70-8990-4E58-A359-D098368EAFA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -534,8 +679,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="13696950"/>
-          <a:ext cx="5687219" cy="3067478"/>
+          <a:off x="5095875" y="5905500"/>
+          <a:ext cx="571580" cy="200053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -546,23 +691,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238924</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>95673</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>383380</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D37B64F-088C-422B-ABDD-C97A153BBE93}"/>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C132660A-F5A4-48C0-AA04-B0E5FF54E9D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -578,8 +723,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="17049750"/>
-          <a:ext cx="5725324" cy="3029373"/>
+          <a:off x="6467474" y="5905500"/>
+          <a:ext cx="383381" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -590,23 +735,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>181766</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>200726</xdr:rowOff>
+      <xdr:colOff>400202</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19082</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BF1431-700C-4EA5-8ECA-2731DCDD0339}"/>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925A70EB-A03B-42A1-A1BA-C54E3975D992}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -622,8 +767,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="20402550"/>
-          <a:ext cx="5668166" cy="5020376"/>
+          <a:off x="5095875" y="4105275"/>
+          <a:ext cx="1086002" cy="228632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182340</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>58094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DC3E73-03CB-475A-A480-854D3413F0D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="9258300"/>
+          <a:ext cx="9783540" cy="6763694"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -645,17 +834,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>105364</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>105433</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>534144</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>48392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB89AC28-04A4-48EF-91AC-BDE44F0F285F}"/>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2DB389-312D-4DCB-9BA3-D8E39CE3FDBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -671,8 +860,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="209550"/>
-          <a:ext cx="4220164" cy="4715533"/>
+          <a:off x="295275" y="333375"/>
+          <a:ext cx="5334744" cy="5496692"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,23 +872,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>401242</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>591685</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>48100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D237C3-D86E-4CDD-BCFD-1FA5760EF3A0}"/>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7A69D5-9030-42F7-86EB-DFF42D5F3015}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -715,8 +904,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="419100"/>
-          <a:ext cx="1087042" cy="209550"/>
+          <a:off x="295275" y="7581900"/>
+          <a:ext cx="8135485" cy="3400900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -727,23 +916,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95838</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>67065</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76785</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>58</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB61FE29-4F77-4467-B5E7-FFF509E4F2D7}"/>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F573D2-42E9-464E-9752-47E10155ABEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -759,8 +948,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="838200"/>
-          <a:ext cx="4210638" cy="2791215"/>
+          <a:off x="295275" y="5991225"/>
+          <a:ext cx="4191585" cy="419158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -769,25 +958,211 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>648269</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>292</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>534527</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>115281</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9B3BFD-B1D7-48B2-B03B-B0362E358936}"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8685DB-F1D4-4A76-AD4D-BA6AC19250E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="209550"/>
+          <a:ext cx="8078327" cy="7030431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>658370</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFFE04C-C100-4EE8-BA41-9C77B981B794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="333375"/>
+          <a:ext cx="8202170" cy="2934109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571771</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F5FBDD-73E7-4DCF-ADD6-4AB9659C9FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="3686175"/>
+          <a:ext cx="1943371" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315135</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>124252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D50031C-35F0-499E-8FA0-F829AE4B7868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="5362575"/>
+          <a:ext cx="5801535" cy="3057952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>153187</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF88CDC-027F-48D2-B2E4-77DEC67CAFE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -803,8 +1178,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="5448300"/>
-          <a:ext cx="4077269" cy="2095792"/>
+          <a:off x="295275" y="8753475"/>
+          <a:ext cx="5639587" cy="533474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,21 +1192,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381149</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324661</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF3B9F5-A373-4E95-BB13-D96F24DC7BB5}"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8587E281-B6A6-4826-8CA1-72254E076929}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -847,8 +1222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="7543800"/>
-          <a:ext cx="1066949" cy="1076475"/>
+          <a:off x="295275" y="9591675"/>
+          <a:ext cx="5811061" cy="1705213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -859,23 +1234,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190527</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>29</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>658004</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613C61C1-2162-44FB-85C3-2769920B0BDC}"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ACD273-49FB-4AD1-BD03-CC5D0BA7CC77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -891,8 +1266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095875" y="5695950"/>
-          <a:ext cx="190527" cy="209579"/>
+          <a:off x="6343650" y="10906125"/>
+          <a:ext cx="5582429" cy="447737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,23 +1278,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C06338-16CA-4055-A016-F3038268D589}"/>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638CF15A-19CF-45A1-808A-8C8085CBD5D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,8 +1310,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6467475" y="5695950"/>
-          <a:ext cx="137160" cy="228600"/>
+          <a:off x="295275" y="11601450"/>
+          <a:ext cx="5553850" cy="1886213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -947,23 +1322,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571580</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>200053</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200819</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>133778</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BEAA70-8990-4E58-A359-D098368EAFA8}"/>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B2A180-7A6B-410A-937B-636483CC8183}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -979,8 +1354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095875" y="5905500"/>
-          <a:ext cx="571580" cy="200053"/>
+          <a:off x="295275" y="13696950"/>
+          <a:ext cx="5687219" cy="3067478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -991,23 +1366,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>383380</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>238924</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>95673</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C132660A-F5A4-48C0-AA04-B0E5FF54E9D7}"/>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D37B64F-088C-422B-ABDD-C97A153BBE93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,8 +1398,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6467474" y="5905500"/>
-          <a:ext cx="383381" cy="219075"/>
+          <a:off x="295275" y="17049750"/>
+          <a:ext cx="5725324" cy="3029373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1035,23 +1410,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>400202</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19082</xdr:rowOff>
+      <xdr:colOff>181766</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>200726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925A70EB-A03B-42A1-A1BA-C54E3975D992}"/>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BF1431-700C-4EA5-8ECA-2731DCDD0339}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1067,8 +1442,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095875" y="4105275"/>
-          <a:ext cx="1086002" cy="228632"/>
+          <a:off x="295275" y="20402550"/>
+          <a:ext cx="5668166" cy="5020376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1077,25 +1452,1605 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>506044</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>57743</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="그룹 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15075A7D-1C16-4947-9220-C2FE36EB87E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="295275" y="26012775"/>
+          <a:ext cx="8735644" cy="4248743"/>
+          <a:chOff x="295275" y="26012775"/>
+          <a:chExt cx="8735644" cy="4248743"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="21" name="그룹 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219C7C6C-6076-4F4E-A00A-22B490609FB8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="295275" y="26012775"/>
+            <a:ext cx="8735644" cy="4248743"/>
+            <a:chOff x="295275" y="26012775"/>
+            <a:chExt cx="8735644" cy="4248743"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="20" name="그룹 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205DDDCB-9214-485C-B277-5E6D716BF290}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="295275" y="26012775"/>
+              <a:ext cx="8735644" cy="4248743"/>
+              <a:chOff x="295275" y="26012775"/>
+              <a:chExt cx="8735644" cy="4248743"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="15" name="그룹 14">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B55C3F-1A1D-46B5-88CB-E15DE20A809E}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="295275" y="26012775"/>
+                <a:ext cx="8735644" cy="4248743"/>
+                <a:chOff x="295275" y="26012775"/>
+                <a:chExt cx="8735644" cy="4248743"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="12" name="그림 11">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BED3B38-DAA1-489F-A6F5-C6141BF13CB0}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="295275" y="26012775"/>
+                  <a:ext cx="8735644" cy="4248743"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+            </xdr:pic>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="14" name="직사각형 13">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46E5DB9-1A1E-49FE-8340-25ECB5E06051}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3933825" y="26536650"/>
+                  <a:ext cx="1647825" cy="285750"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="28575">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="17" name="직사각형 16">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7F61B0-A5E8-4D2F-953D-E9C7DD77DD48}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="923925" y="27479624"/>
+                <a:ext cx="4133850" cy="485775"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="18" name="직사각형 17">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE4F5A5-B938-4AE3-A9C8-37EA9656DDCE}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4762499" y="28298774"/>
+                <a:ext cx="1419225" cy="190501"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="19" name="직사각형 18">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058CC612-2F58-481E-8966-E805C15F1412}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2028824" y="28489275"/>
+                <a:ext cx="2905126" cy="180976"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="직사각형 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83FFD52-B891-495F-8EAD-82DFD42B2B80}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="942975" y="26908124"/>
+              <a:ext cx="6610350" cy="485775"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="직사각형 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7026698-E3CA-4315-9650-69129BD3CEA6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2457450" y="29060775"/>
+            <a:ext cx="390525" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>438211</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19166</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="그룹 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7257B91-4EA9-49DD-B105-79B6AE739939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8934450" y="238125"/>
+          <a:ext cx="5905561" cy="828791"/>
+          <a:chOff x="8934450" y="238125"/>
+          <a:chExt cx="5905561" cy="828791"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="그림 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213FA815-9230-4178-A13B-34E79FB56897}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8934450" y="238125"/>
+            <a:ext cx="5182323" cy="828791"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="그림 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6D9521-35EF-44F4-AC7F-99A5B1F5AE41}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14401800" y="438150"/>
+            <a:ext cx="438211" cy="219106"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE852B97-2A53-49CA-93FD-5BC388FED712}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="19" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="12620625" y="547703"/>
+            <a:ext cx="1781175" cy="176197"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC01464-DA73-42F2-9DED-1B9699CC5998}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="12687301" y="695325"/>
+            <a:ext cx="2047874" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>786</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="그룹 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1765B0B-6B19-4703-A990-4C9A0385426A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="714375" y="238125"/>
+          <a:ext cx="8115300" cy="5630061"/>
+          <a:chOff x="714375" y="238125"/>
+          <a:chExt cx="8115300" cy="5630061"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="그림 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98C91CC-CB0C-4A7F-8939-85A65CE20E65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="714375" y="238125"/>
+            <a:ext cx="7525800" cy="5630061"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="직선 화살표 연결선 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0FE678-2037-425C-B871-80B8FF549250}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6772275" y="581026"/>
+            <a:ext cx="2057400" cy="1219199"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="직사각형 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810CCB0A-CD9F-4E9B-9598-0C032656D5D0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1724025" y="1390650"/>
+            <a:ext cx="5029200" cy="838199"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="직사각형 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F334E817-409C-4BC2-8E34-2716C823CCE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="2447925"/>
+          <a:ext cx="4914900" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="직선 화살표 연결선 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD1A81D-2983-4FCA-A5CA-E28595F6C4E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="3248025"/>
+          <a:ext cx="2247900" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>134039</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0814DF-014E-4E03-8861-2F33E8E2E064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="3562350"/>
+          <a:ext cx="4934639" cy="1343212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>105460</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812E9925-3B01-4B76-BE27-F41D37A26E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="5238750"/>
+          <a:ext cx="4906060" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457934</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F67E4DD-1BA6-4281-87EE-2840ECCE3641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="5867400"/>
+          <a:ext cx="5258534" cy="1028844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>466982</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="그림 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8B0237-4A85-4EFF-B801-46A899C793EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="4400550"/>
+          <a:ext cx="1838582" cy="447737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>581283</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D132C31-9CD6-49B3-9697-7C402EC878C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14506575" y="5876925"/>
+          <a:ext cx="1848108" cy="2400635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>105460</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="그림 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA3A045-9730-4B72-9A1B-45087339D8B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="7248525"/>
+          <a:ext cx="4906060" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>182340</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>58094</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>105460</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>29</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DC3E73-03CB-475A-A480-854D3413F0D9}"/>
+        <xdr:cNvPr id="48" name="그림 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57AECCBF-A0B7-4D9A-9001-BE4246F69C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="9134475"/>
+          <a:ext cx="4906060" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>20106</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>182053</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="56" name="그룹 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA1BCA3-9D0A-405A-87A3-34438A46CA82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8010525" y="9344025"/>
+          <a:ext cx="8468781" cy="7725853"/>
+          <a:chOff x="8010525" y="9763125"/>
+          <a:chExt cx="8468781" cy="7725853"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="49" name="그림 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C186FC6A-91CD-4773-B64C-7E965EF9105D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8915400" y="9763125"/>
+            <a:ext cx="7563906" cy="7725853"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="직사각형 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04450578-44D1-4994-9D1C-B85E4161753A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10353675" y="11896725"/>
+            <a:ext cx="3543300" cy="219075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="51" name="직선 화살표 연결선 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11AE99C2-FC4C-4636-938A-10A4960D0D56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="50" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8353425" y="12006263"/>
+            <a:ext cx="2000250" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="직사각형 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4269DBA3-F546-4F93-8902-6339447799C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10010775" y="12649200"/>
+            <a:ext cx="1000125" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="55" name="직선 화살표 연결선 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206980E6-E194-4C47-BF70-260D73047205}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8010525" y="12749213"/>
+            <a:ext cx="2000250" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600829</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>143041</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="그림 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9049B7AF-08BE-4374-9579-BC41CCA98B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="17516475"/>
+          <a:ext cx="5401429" cy="1190791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134039</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="그림 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A38061-8799-4712-9FE0-090B4E334E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="19402425"/>
+          <a:ext cx="4934639" cy="1343212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466982</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>28637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="그림 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B1B503-2F4F-40A2-A59E-B7A658726FF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="20240625"/>
+          <a:ext cx="1838582" cy="447737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514611</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="그림 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D22BEE-7D03-4DE1-8BE5-997860DEF407}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,8 +3066,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="9258300"/>
-          <a:ext cx="9783540" cy="6763694"/>
+          <a:off x="9620250" y="7686675"/>
+          <a:ext cx="1867161" cy="190527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1121,30 +3076,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>534144</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>48392</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>105268</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19082</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2DB389-312D-4DCB-9BA3-D8E39CE3FDBC}"/>
+        <xdr:cNvPr id="62" name="그림 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EBF52F-6FB2-4174-9996-0386FFA6CD19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1153,15 +3103,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="333375"/>
-          <a:ext cx="5334744" cy="5496692"/>
+          <a:off x="8915400" y="8086725"/>
+          <a:ext cx="3534268" cy="228632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1172,23 +3122,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>591685</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>48100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495561</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7A69D5-9030-42F7-86EB-DFF42D5F3015}"/>
+        <xdr:cNvPr id="63" name="그림 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25A7B31-CD11-4D2D-B187-004B1B09FA84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,15 +3147,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="7581900"/>
-          <a:ext cx="8135485" cy="3400900"/>
+          <a:off x="10287000" y="8505825"/>
+          <a:ext cx="1867161" cy="190527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1216,23 +3166,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76785</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>58</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19082</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F573D2-42E9-464E-9752-47E10155ABEE}"/>
+        <xdr:cNvPr id="64" name="그림 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72213EF5-B80C-40AF-9FDC-88952F95C11B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1241,15 +3191,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="5991225"/>
-          <a:ext cx="4191585" cy="419158"/>
+          <a:off x="8915400" y="8715375"/>
+          <a:ext cx="3448050" cy="228632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1557,57 +3507,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD98462-1E87-4CB9-AD1F-38FD64F98327}">
-  <dimension ref="A1:A95"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="26.25">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="26.25">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="26.25">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="26.25">
-      <c r="A44" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="26.25">
-      <c r="A79" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="26.25">
-      <c r="A95" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DAC007-D708-4219-8142-FD97B2BB1C03}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1680,12 +3583,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCFB233-7B49-4924-B5CC-A547BCAE486D}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1736,21 +3642,305 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8168202C-308C-497C-871F-E9AD09620DC5}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>13</v>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD98462-1E87-4CB9-AD1F-38FD64F98327}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:O145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="26.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="26.25">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="26.25">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="26.25">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="26.25">
+      <c r="A79" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="26.25">
+      <c r="A95" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="26.25">
+      <c r="A120" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15">
+      <c r="O132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15">
+      <c r="O133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15">
+      <c r="O134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15">
+      <c r="O135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15">
+      <c r="O137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15">
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15">
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15">
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8BB337-F651-444F-ABDF-300B97F3CF8C}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A3:W100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="3" spans="14:23">
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="14:23">
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="14:23">
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="14:23">
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="14:23">
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="N28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="26.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="34" spans="14:20">
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="14:20">
+      <c r="N36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="14:20">
+      <c r="N37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="14:20">
+      <c r="N38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="14:20">
+      <c r="N40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="14:20">
+      <c r="N41" t="s">
+        <v>47</v>
+      </c>
+      <c r="S41" t="s">
+        <v>24</v>
+      </c>
+      <c r="T41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="14:20">
+      <c r="S42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="10:14">
+      <c r="J85" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="10:14">
+      <c r="J86" t="s">
+        <v>34</v>
+      </c>
+      <c r="N86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="10:14">
+      <c r="J87" t="s">
+        <v>35</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="10:14">
+      <c r="J88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="10:14">
+      <c r="J89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="10:14">
+      <c r="J90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="10:14">
+      <c r="J91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="10:14">
+      <c r="J93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="10:14">
+      <c r="J94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" ht="17.25" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/BAEKJOON/JAVA.xlsx
+++ b/BAEKJOON/JAVA.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\OneDrive\바탕 화면\CCPAPA\BAEKJOON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B72D4D-75BC-47E5-9C67-F87115F41581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C301E9DC-446B-451D-A8E1-90739901739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
+    <workbookView xWindow="16305" yWindow="735" windowWidth="10290" windowHeight="14865" activeTab="5" xr2:uid="{98BBE5FF-009A-420F-B414-3C3228EC7560}"/>
   </bookViews>
   <sheets>
     <sheet name="입출력과 사칙연산" sheetId="6" r:id="rId1"/>
     <sheet name="조건문IF" sheetId="8" r:id="rId2"/>
-    <sheet name="반복문" sheetId="9" r:id="rId3"/>
+    <sheet name="반복문For" sheetId="9" r:id="rId3"/>
     <sheet name="효율적출력" sheetId="10" r:id="rId4"/>
     <sheet name="버퍼리더주의점" sheetId="11" r:id="rId5"/>
+    <sheet name="반복문While" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>입력한 숫자 B 에서 3번째 자리수를 빼오는 법 (인덱스 0부터시작)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +236,46 @@
   </si>
   <si>
     <t>에 의해 첫번 째 토큰만 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int타입을 갖고 있는 값을 비교할 시 null과는 비교할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int는 null이란 개념이 없기 때문이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int는 null비교불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+B의 값을 출력하되 입력된 값이 없으면 종료되도록 코드를 짜고 싶었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복문 처리해서 A와B값을 입력받고 입력받은 A B 둘중하나라도 null이 있다면 브레이크를 거는 코드를 짰다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러나 int의 경우 null이란 개념이 없기에 비교자체가 되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열로 null비교를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교 후에 int로 변환시켜줘서 값을 출력한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +320,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +365,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3211,6 +3263,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>648748</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84048C01-A44B-40CB-8B56-8D184ABE8FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="962025"/>
+          <a:ext cx="7506748" cy="4239217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>39063</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8DB5EA-3DAF-4A82-AD70-C9D4C4FEDB8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6448425"/>
+          <a:ext cx="6897063" cy="4458322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -3649,7 +3794,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -3677,8 +3822,8 @@
   </sheetPr>
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3780,7 +3925,7 @@
   </sheetPr>
   <dimension ref="A3:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -3943,4 +4088,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB415A4-1AD2-45B2-8B7F-8BCBFD4C2D17}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26.25">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>